--- a/src/assets/upload/import_to_chuc.xlsx
+++ b/src/assets/upload/import_to_chuc.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP Probook 440G8\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\econtract-web\src\assets\upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A16AC0B-4BCE-4764-A1DD-4AC3E251313E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C53232CA-746F-4536-AE04-28FDCC19B696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{70240AC9-0F1E-4929-B952-C18F84654838}"/>
   </bookViews>
@@ -47,10 +47,10 @@
     <t>Mã số thuế</t>
   </si>
   <si>
-    <t xml:space="preserve">Mã tổ chức cấp trên(*)  </t>
-  </si>
-  <si>
     <t>Fax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID tổ chức cấp trên(*)  </t>
   </si>
 </sst>
 </file>
@@ -411,7 +411,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -437,10 +437,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">

--- a/src/assets/upload/import_to_chuc.xlsx
+++ b/src/assets/upload/import_to_chuc.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\econtract-web\src\assets\upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C53232CA-746F-4536-AE04-28FDCC19B696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECA82713-2D97-4D52-838E-57D57CD05FDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{70240AC9-0F1E-4929-B952-C18F84654838}"/>
   </bookViews>
@@ -19,14 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -91,9 +83,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -411,19 +404,19 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="11.26953125" customWidth="1"/>
-    <col min="3" max="3" width="18.453125" customWidth="1"/>
-    <col min="4" max="4" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -433,7 +426,7 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
@@ -443,7 +436,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
     </row>
   </sheetData>

--- a/src/assets/upload/import_to_chuc.xlsx
+++ b/src/assets/upload/import_to_chuc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\econtract-web\src\assets\upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECA82713-2D97-4D52-838E-57D57CD05FDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0BE9C54-F5C1-4FE4-ACF8-9275A6C11981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{70240AC9-0F1E-4929-B952-C18F84654838}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{70240AC9-0F1E-4929-B952-C18F84654838}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -57,18 +57,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor indexed="10"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -83,9 +84,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -401,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79BBC2C0-B888-4BD4-9E49-370C16BBA5F4}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -412,7 +412,7 @@
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="22.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -426,7 +426,7 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
@@ -437,9 +437,13 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
+      <c r="D2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/src/assets/upload/import_to_chuc.xlsx
+++ b/src/assets/upload/import_to_chuc.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\econtract-web\src\assets\upload\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thang\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0BE9C54-F5C1-4FE4-ACF8-9275A6C11981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A29406FE-D9D3-4F93-B226-4727B70B9374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{70240AC9-0F1E-4929-B952-C18F84654838}"/>
   </bookViews>
@@ -401,26 +401,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79BBC2C0-B888-4BD4-9E49-370C16BBA5F4}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" customWidth="1"/>
     <col min="4" max="4" width="18.140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -432,15 +433,9 @@
       <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D2"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
